--- a/Backlog & Requisitos.xlsx
+++ b/Backlog & Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\The Last of Us Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE0DA8E-6488-4F87-927C-96DD8BAA1871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F69C2A-175C-45E0-97B5-E9D8867799BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{F04619A0-1F6D-45CD-AB57-671033AD391A}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -238,12 +238,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,34 +426,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,26 +456,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726AADF3-7623-439A-8592-1DFFCB78CA07}">
   <dimension ref="G1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +839,7 @@
       <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="9"/>
@@ -833,7 +848,7 @@
       <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="9"/>
@@ -842,7 +857,7 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="9"/>
@@ -851,7 +866,7 @@
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="9"/>
@@ -860,7 +875,7 @@
       <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="9"/>
@@ -869,7 +884,7 @@
       <c r="G9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="9"/>
@@ -878,7 +893,7 @@
       <c r="G10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="9"/>
@@ -887,7 +902,7 @@
       <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="9"/>
@@ -896,7 +911,7 @@
       <c r="G12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="9"/>
@@ -905,7 +920,7 @@
       <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="9"/>
@@ -914,7 +929,7 @@
       <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="9"/>
@@ -923,7 +938,7 @@
       <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="9"/>
@@ -941,7 +956,7 @@
       <c r="G17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="9"/>
@@ -950,7 +965,7 @@
       <c r="G18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="9"/>
@@ -959,7 +974,7 @@
       <c r="G19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I19" s="9"/>
@@ -986,7 +1001,7 @@
       <c r="G22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="9"/>
@@ -1004,7 +1019,7 @@
       <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I24" s="9"/>
@@ -1013,7 +1028,7 @@
       <c r="G25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="9"/>
@@ -1022,7 +1037,7 @@
       <c r="G26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="9"/>
@@ -1031,7 +1046,7 @@
       <c r="G27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="20" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="9"/>
@@ -1050,12 +1065,12 @@
     </row>
     <row r="30" spans="7:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="7:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
@@ -1072,7 +1087,7 @@
       <c r="O32" s="17"/>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L33" s="18"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="17"/>
       <c r="N33" s="16" t="s">
         <v>0</v>
@@ -1082,11 +1097,11 @@
     <row r="34" spans="12:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L35" s="20"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="17"/>
       <c r="N35" s="16" t="s">
         <v>32</v>
